--- a/medicine/Sexualité et sexologie/Un_adultère/Un_adultère.xlsx
+++ b/medicine/Sexualité et sexologie/Un_adultère/Un_adultère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_adult%C3%A8re</t>
+          <t>Un_adultère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un adultère est un téléfilm français réalisé par Philippe Harel et diffusé pour la première fois le 5 octobre 2018 sur Arte.
-Cette première diffusion fait un succès d’audience avec 6,5 % de PDA et 1,367 million de téléspectateurs. Il s’agit de la deuxième meilleure audience de l’année 2018 pour la case Fiction sur Arte[1].
+Cette première diffusion fait un succès d’audience avec 6,5 % de PDA et 1,367 million de téléspectateurs. Il s’agit de la deuxième meilleure audience de l’année 2018 pour la case Fiction sur Arte.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_adult%C3%A8re</t>
+          <t>Un_adultère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire d'un adultère qui, comme il se doit, met en scène trois personnages : à Paris, Julien, agent immobilier, trompe sa femme Marie - qui tient un petit salon de thé - avec Alice, jolie étudiante de 25 ans. Quel avenir pour cette histoire ? Quelle place pour l'entourage : Mathias, le fils unique du couple, adolescent, David, le collègue et ami de Julien, ou encore la mère de Marie ?
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_adult%C3%A8re</t>
+          <t>Un_adultère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : Un adultère
@@ -594,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Un_adult%C3%A8re</t>
+          <t>Un_adultère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,7 +628,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Isabelle Carré : Marie Lemonnier
@@ -643,7 +661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Un_adult%C3%A8re</t>
+          <t>Un_adultère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,13 +681,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-2018 : Festival de Luchon[2]
-Meilleur espoir féminin[3] pour Roxane Arnal
-Prix d’interprétation masculine[4] pour Xavier Lemaitre
-2018 : COLCOA French Film Festival : Prix du public[5]
-Sélections
-2018 : sélectionné en compétition officielle[6] au Festival international des programmes audiovisuels de Biarritz</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : Festival de Luchon
+Meilleur espoir féminin pour Roxane Arnal
+Prix d’interprétation masculine pour Xavier Lemaitre
+2018 : COLCOA French Film Festival : Prix du public</t>
         </is>
       </c>
     </row>
@@ -679,7 +700,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Un_adult%C3%A8re</t>
+          <t>Un_adultère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,13 +715,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil critique</t>
+          <t>Prix et Sélections</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le magazine Moustique qualifie le téléfilm d'« intelligent et sensible à la fois »[7].
-</t>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2018 : sélectionné en compétition officielle au Festival international des programmes audiovisuels de Biarritz</t>
         </is>
       </c>
     </row>
@@ -710,7 +736,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Un_adult%C3%A8re</t>
+          <t>Un_adultère</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -725,10 +751,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le magazine Moustique qualifie le téléfilm d'« intelligent et sensible à la fois ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Un_adultère</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_adult%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est exactement vingt ans après La Femme défendue (1997) que Philippe Harel retrouve Isabelle Carré pour une nouvelle histoire d'adultère.
 Un adultère est le dernier film du directeur de la photographie Matthieu Poirot-Delpech, mort à Paris le 25 novembre 2017.
